--- a/biology/Botanique/Oenocarpus_bataua/Oenocarpus_bataua.xlsx
+++ b/biology/Botanique/Oenocarpus_bataua/Oenocarpus_bataua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenocarpus bataua ou Jessenia bataua, appelé aussi patawa, sehe, hungurahua en Équateur ou mingucha, est une espèce de palmier originaire d'Amazonie qui produit des fruits comestibles riches en huile.
 </t>
@@ -511,16 +523,18 @@
           <t>Noms connus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce semble avoir connu différents noms scientifiques au cours du temps. Ainsi peut-on signaler les noms suivants [1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce semble avoir connu différents noms scientifiques au cours du temps. Ainsi peut-on signaler les noms suivants , :
 Jessenia bataua subesp. bataua (Mart.) Burret (1928).
 Oenocarpus batawa Wallace (1853), avec une orthographe variable ;
 Jessenia polycarpa H.Karst. (1857) ;
 Jessenia repanda Engl. (1865) ;
 Oenocarpus seje Cuervo Márquez (1913) ;
 Jessenia weberbaueri Burret (1929).
-Les noms vernaculaires connus de ce palmier sont : en Guyane « patawa », au Brésil pataua, au Guyana turu et au Suriname patawa-komboe[3].
+Les noms vernaculaires connus de ce palmier sont : en Guyane « patawa », au Brésil pataua, au Guyana turu et au Suriname patawa-komboe.
 </t>
         </is>
       </c>
@@ -549,11 +563,13 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oenocarpus bataua est largement distribué de Panama à Trinidad (Colombie, Venezuela, Guyana, Suriname, nord-est de la Guyane française), ainsi qu'au Brésil, en Bolivie, et au Pérou[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oenocarpus bataua est largement distribué de Panama à Trinidad (Colombie, Venezuela, Guyana, Suriname, nord-est de la Guyane française), ainsi qu'au Brésil, en Bolivie, et au Pérou.
 Il pousse du niveau de la mer jusqu'à environ 1 000 mètres d'altitude.
-C'est un palmier fréquent sur les bords du río Caquetá et de ses affluents ; on le trouve aussi parfois dans les zones inondées, associé au palmier-bâche (Mauritia flexuosa)[4].
+C'est un palmier fréquent sur les bords du río Caquetá et de ses affluents ; on le trouve aussi parfois dans les zones inondées, associé au palmier-bâche (Mauritia flexuosa).
 </t>
         </is>
       </c>
@@ -582,15 +598,17 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stipe est solitaire, érigé, lisse et annelé, d'une hauteur de 10 à 25 m et d'un diamètre de 20 à 30 cm.
-Il porte de 10 à 16 feuilles ayant un pétiole de 10 à 50 cm et un rachis de 3 à 7 m de long, avec environ 100 folioles de chaque côté, placées dans le même plan, dont la taille peut aller jusqu'à 2 m de long et 15 cm de large[4].
+Il porte de 10 à 16 feuilles ayant un pétiole de 10 à 50 cm et un rachis de 3 à 7 m de long, avec environ 100 folioles de chaque côté, placées dans le même plan, dont la taille peut aller jusqu'à 2 m de long et 15 cm de large.
 L'inflorescence, jaunâtre lors de la floraison et rougeâtre lors de la fructification, mesure de 1 à 2 m, avec un pédoncule allant jusqu'à 40 cm et une bractée pédonculaire jusqu'à 1,5 m.
 Son rachis comporte jusqu'à 300 rachilles densément disposés, les plus longues mesurant 1,3 m de long et jusqu'à 7 mm d'épaisseur.
-Les fleurs sont jaunes avec des sépales de 2 mm et des pétales de 7 mm[4].
+Les fleurs sont jaunes avec des sépales de 2 mm et des pétales de 7 mm.
 Le fruit est ovoïde à oblong-ellipsoïde, violacé à noir, avec un apex aigu, il mesure de 2,5 à 4 cm de long et de 2 à 3 cm de diamètre.
-Il possède un mésocarpe oléagineux et est consommé par un grand nombre d'animaux, dont les guacharos, les dindons, les perroquets, les cochons sauvages, les tapirs et les souris[4].
+Il possède un mésocarpe oléagineux et est consommé par un grand nombre d'animaux, dont les guacharos, les dindons, les perroquets, les cochons sauvages, les tapirs et les souris.
 </t>
         </is>
       </c>
@@ -619,14 +637,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est riche en huile, est très nutritif, et une fois mûr, il peut être consommé directement après trempage dans de l'eau chaude, ou être mis à macérer, puis filtré, pour faire de la chicha.
 |
 Son huile peut également être extraite et utilisée en cuisine.
-Le bourgeon frais est également consommé[4].
+Le bourgeon frais est également consommé.
 Les jeunes feuilles sont utilisées pour faire des paniers et pour fabriquer des « catarijanas » (pièces de tissu utilisées comme sac à dos pour transporter des objets lourds comme des poteries).
-Avec le rachis et les nerfs des pinnules, on fabrique des flèches[4].
+Avec le rachis et les nerfs des pinnules, on fabrique des flèches.
 </t>
         </is>
       </c>
